--- a/TNR_JDD/JDD.MP.ECH.xlsx
+++ b/TNR_JDD/JDD.MP.ECH.xlsx
@@ -12,8 +12,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mjyXmly+QVbkmmzFzgC2UuKnnUGUQ=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="3+nGBqZjgz4LW1zY89WOSsemMR6X0gcRExZv2Opz4nE="/>
     </ext>
   </extLst>
 </workbook>
@@ -36,15 +36,15 @@
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhj69ZglLF+yzQYxHiiXxjpitP6eg=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjFgk0lOaupRJrE3NHjd7dLKRO74A=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="193">
   <si>
     <t>Date</t>
   </si>
@@ -610,6 +610,9 @@
   </si>
   <si>
     <t>FOREIGNKEY</t>
+  </si>
+  <si>
+    <t>ID_NUMEQU*EQU*ST_CODCOU</t>
   </si>
   <si>
     <t>SEQUENCE</t>
@@ -842,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -896,6 +899,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="8" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="8" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -4275,7 +4281,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="31.88"/>
     <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col customWidth="1" min="3" max="3" width="25.38"/>
+    <col customWidth="1" min="4" max="6" width="12.63"/>
+    <col customWidth="1" min="7" max="7" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -4721,8 +4729,8 @@
       <c r="D3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>9</v>
+      <c r="E3" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>9</v>
@@ -4925,7 +4933,7 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>9</v>
@@ -5140,7 +5148,7 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>9</v>
@@ -5161,7 +5169,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>9</v>
@@ -5338,10 +5346,10 @@
         <v>9</v>
       </c>
       <c r="BO5" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BP5" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BQ5" s="21" t="s">
         <v>9</v>
@@ -5354,861 +5362,861 @@
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS6" s="22" t="s">
+      <c r="A6" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS6" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="23"/>
+      <c r="A40" s="24"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="23"/>
+      <c r="A41" s="24"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="23"/>
+      <c r="A42" s="24"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="23"/>
+      <c r="A43" s="24"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="23"/>
+      <c r="A49" s="24"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="23"/>
+      <c r="A53" s="24"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="23"/>
+      <c r="A54" s="24"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="23"/>
+      <c r="A56" s="24"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="23"/>
+      <c r="A57" s="24"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="23"/>
+      <c r="A58" s="24"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="23"/>
+      <c r="A64" s="24"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="23"/>
+      <c r="A65" s="24"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="23"/>
+      <c r="A66" s="24"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="23"/>
+      <c r="A67" s="24"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="23"/>
+      <c r="A68" s="24"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="23"/>
+      <c r="A69" s="24"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="23"/>
+      <c r="A70" s="24"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="23"/>
+      <c r="A71" s="24"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="23"/>
+      <c r="A72" s="24"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="23"/>
+      <c r="A73" s="24"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="23"/>
+      <c r="A74" s="24"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="23"/>
+      <c r="A75" s="24"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="23"/>
+      <c r="A76" s="24"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="23"/>
+      <c r="A77" s="24"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="23"/>
+      <c r="A78" s="24"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="23"/>
+      <c r="A79" s="24"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="23"/>
+      <c r="A80" s="24"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="23"/>
+      <c r="A81" s="24"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="23"/>
+      <c r="A82" s="24"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="23"/>
+      <c r="A83" s="24"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="23"/>
+      <c r="A84" s="24"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="23"/>
+      <c r="A85" s="24"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="23"/>
+      <c r="A86" s="24"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="23"/>
+      <c r="A87" s="24"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="23"/>
+      <c r="A88" s="24"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="23"/>
+      <c r="A89" s="24"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="23"/>
+      <c r="A90" s="24"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="23"/>
+      <c r="A91" s="24"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="23"/>
+      <c r="A92" s="24"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="23"/>
+      <c r="A93" s="24"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="23"/>
+      <c r="A94" s="24"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="23"/>
+      <c r="A95" s="24"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="23"/>
+      <c r="A96" s="24"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="23"/>
+      <c r="A97" s="24"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="23"/>
+      <c r="A98" s="24"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="23"/>
+      <c r="A99" s="24"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="23"/>
+      <c r="A100" s="24"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="23"/>
+      <c r="A101" s="24"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="23"/>
+      <c r="A102" s="24"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="23"/>
+      <c r="A103" s="24"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="23"/>
+      <c r="A104" s="24"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="23"/>
+      <c r="A105" s="24"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="23"/>
+      <c r="A106" s="24"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="23"/>
+      <c r="A107" s="24"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="23"/>
+      <c r="A108" s="24"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="23"/>
+      <c r="A109" s="24"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="23"/>
+      <c r="A110" s="24"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="23"/>
+      <c r="A111" s="24"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="23"/>
+      <c r="A112" s="24"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="23"/>
+      <c r="A113" s="24"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="23"/>
+      <c r="A114" s="24"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="23"/>
+      <c r="A115" s="24"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="23"/>
+      <c r="A116" s="24"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="23"/>
+      <c r="A117" s="24"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="23"/>
+      <c r="A118" s="24"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="23"/>
+      <c r="A119" s="24"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="23"/>
+      <c r="A120" s="24"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="23"/>
+      <c r="A121" s="24"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="23"/>
+      <c r="A122" s="24"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="23"/>
+      <c r="A123" s="24"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="23"/>
+      <c r="A124" s="24"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="23"/>
+      <c r="A125" s="24"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="23"/>
+      <c r="A126" s="24"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="23"/>
+      <c r="A127" s="24"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="23"/>
+      <c r="A128" s="24"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="23"/>
+      <c r="A129" s="24"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="23"/>
+      <c r="A130" s="24"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="23"/>
+      <c r="A131" s="24"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="23"/>
+      <c r="A132" s="24"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="23"/>
+      <c r="A133" s="24"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="23"/>
+      <c r="A134" s="24"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="23"/>
+      <c r="A135" s="24"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="23"/>
+      <c r="A136" s="24"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="23"/>
+      <c r="A137" s="24"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="23"/>
+      <c r="A138" s="24"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="23"/>
+      <c r="A139" s="24"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="23"/>
+      <c r="A140" s="24"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="23"/>
+      <c r="A141" s="24"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="23"/>
+      <c r="A142" s="24"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="23"/>
+      <c r="A143" s="24"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="23"/>
+      <c r="A144" s="24"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="23"/>
+      <c r="A145" s="24"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="23"/>
+      <c r="A146" s="24"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="23"/>
+      <c r="A147" s="24"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="23"/>
+      <c r="A148" s="24"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="23"/>
+      <c r="A149" s="24"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="23"/>
+      <c r="A150" s="24"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="23"/>
+      <c r="A151" s="24"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="23"/>
+      <c r="A152" s="24"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="23"/>
+      <c r="A153" s="24"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="23"/>
+      <c r="A154" s="24"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="23"/>
+      <c r="A155" s="24"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="23"/>
+      <c r="A156" s="24"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="23"/>
+      <c r="A157" s="24"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="23"/>
+      <c r="A158" s="24"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="23"/>
+      <c r="A159" s="24"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="23"/>
+      <c r="A160" s="24"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="23"/>
+      <c r="A161" s="24"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="23"/>
+      <c r="A162" s="24"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="23"/>
+      <c r="A163" s="24"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="23"/>
+      <c r="A164" s="24"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="23"/>
+      <c r="A165" s="24"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="23"/>
+      <c r="A166" s="24"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="23"/>
+      <c r="A167" s="24"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="23"/>
+      <c r="A168" s="24"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="23"/>
+      <c r="A169" s="24"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="23"/>
+      <c r="A170" s="24"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="23"/>
+      <c r="A171" s="24"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="23"/>
+      <c r="A172" s="24"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="23"/>
+      <c r="A173" s="24"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="23"/>
+      <c r="A174" s="24"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="23"/>
+      <c r="A175" s="24"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="23"/>
+      <c r="A176" s="24"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="23"/>
+      <c r="A177" s="24"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="23"/>
+      <c r="A178" s="24"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="23"/>
+      <c r="A179" s="24"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="23"/>
+      <c r="A180" s="24"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="23"/>
+      <c r="A181" s="24"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="23"/>
+      <c r="A182" s="24"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="23"/>
+      <c r="A183" s="24"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="23"/>
+      <c r="A184" s="24"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="23"/>
+      <c r="A185" s="24"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="23"/>
+      <c r="A186" s="24"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="23"/>
+      <c r="A187" s="24"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="23"/>
+      <c r="A188" s="24"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="23"/>
+      <c r="A189" s="24"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="23"/>
+      <c r="A190" s="24"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="23"/>
+      <c r="A191" s="24"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="23"/>
+      <c r="A192" s="24"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="23"/>
+      <c r="A193" s="24"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="23"/>
+      <c r="A194" s="24"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="23"/>
+      <c r="A195" s="24"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="23"/>
+      <c r="A196" s="24"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="23"/>
+      <c r="A197" s="24"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="23"/>
+      <c r="A198" s="24"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="23"/>
+      <c r="A199" s="24"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="23"/>
+      <c r="A200" s="24"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="23"/>
+      <c r="A201" s="24"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="23"/>
+      <c r="A202" s="24"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="23"/>
+      <c r="A203" s="24"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="24"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="23"/>
+      <c r="A205" s="24"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="23"/>
+      <c r="A206" s="24"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="23"/>
+      <c r="A207" s="24"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="23"/>
+      <c r="A208" s="24"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="23"/>
+      <c r="A209" s="24"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="23"/>
+      <c r="A210" s="24"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="23"/>
+      <c r="A211" s="24"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="23"/>
+      <c r="A212" s="24"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="23"/>
+      <c r="A213" s="24"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="23"/>
+      <c r="A214" s="24"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="23"/>
+      <c r="A215" s="24"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="23"/>
+      <c r="A216" s="24"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="23"/>
+      <c r="A217" s="24"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="23"/>
+      <c r="A218" s="24"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="23"/>
+      <c r="A219" s="24"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="23"/>
+      <c r="A220" s="24"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -7018,14 +7026,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>190</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -8059,7 +8067,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="19"/>
       <c r="B1" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -8100,663 +8108,663 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B4" s="21"/>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B5" s="21"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="22"/>
+      <c r="A6" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="23"/>
+      <c r="A40" s="24"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="23"/>
+      <c r="A41" s="24"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="23"/>
+      <c r="A42" s="24"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="23"/>
+      <c r="A43" s="24"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="23"/>
+      <c r="A49" s="24"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="23"/>
+      <c r="A53" s="24"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="23"/>
+      <c r="A54" s="24"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="23"/>
+      <c r="A56" s="24"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="23"/>
+      <c r="A57" s="24"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="23"/>
+      <c r="A58" s="24"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="23"/>
+      <c r="A64" s="24"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="23"/>
+      <c r="A65" s="24"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="23"/>
+      <c r="A66" s="24"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="23"/>
+      <c r="A67" s="24"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="23"/>
+      <c r="A68" s="24"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="23"/>
+      <c r="A69" s="24"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="23"/>
+      <c r="A70" s="24"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="23"/>
+      <c r="A71" s="24"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="23"/>
+      <c r="A72" s="24"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="23"/>
+      <c r="A73" s="24"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="23"/>
+      <c r="A74" s="24"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="23"/>
+      <c r="A75" s="24"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="23"/>
+      <c r="A76" s="24"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="23"/>
+      <c r="A77" s="24"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="23"/>
+      <c r="A78" s="24"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="23"/>
+      <c r="A79" s="24"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="23"/>
+      <c r="A80" s="24"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="23"/>
+      <c r="A81" s="24"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="23"/>
+      <c r="A82" s="24"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="23"/>
+      <c r="A83" s="24"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="23"/>
+      <c r="A84" s="24"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="23"/>
+      <c r="A85" s="24"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="23"/>
+      <c r="A86" s="24"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="23"/>
+      <c r="A87" s="24"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="23"/>
+      <c r="A88" s="24"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="23"/>
+      <c r="A89" s="24"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="23"/>
+      <c r="A90" s="24"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="23"/>
+      <c r="A91" s="24"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="23"/>
+      <c r="A92" s="24"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="23"/>
+      <c r="A93" s="24"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="23"/>
+      <c r="A94" s="24"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="23"/>
+      <c r="A95" s="24"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="23"/>
+      <c r="A96" s="24"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="23"/>
+      <c r="A97" s="24"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="23"/>
+      <c r="A98" s="24"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="23"/>
+      <c r="A99" s="24"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="23"/>
+      <c r="A100" s="24"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="23"/>
+      <c r="A101" s="24"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="23"/>
+      <c r="A102" s="24"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="23"/>
+      <c r="A103" s="24"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="23"/>
+      <c r="A104" s="24"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="23"/>
+      <c r="A105" s="24"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="23"/>
+      <c r="A106" s="24"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="23"/>
+      <c r="A107" s="24"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="23"/>
+      <c r="A108" s="24"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="23"/>
+      <c r="A109" s="24"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="23"/>
+      <c r="A110" s="24"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="23"/>
+      <c r="A111" s="24"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="23"/>
+      <c r="A112" s="24"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="23"/>
+      <c r="A113" s="24"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="23"/>
+      <c r="A114" s="24"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="23"/>
+      <c r="A115" s="24"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="23"/>
+      <c r="A116" s="24"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="23"/>
+      <c r="A117" s="24"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="23"/>
+      <c r="A118" s="24"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="23"/>
+      <c r="A119" s="24"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="23"/>
+      <c r="A120" s="24"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="23"/>
+      <c r="A121" s="24"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="23"/>
+      <c r="A122" s="24"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="23"/>
+      <c r="A123" s="24"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="23"/>
+      <c r="A124" s="24"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="23"/>
+      <c r="A125" s="24"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="23"/>
+      <c r="A126" s="24"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="23"/>
+      <c r="A127" s="24"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="23"/>
+      <c r="A128" s="24"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="23"/>
+      <c r="A129" s="24"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="23"/>
+      <c r="A130" s="24"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="23"/>
+      <c r="A131" s="24"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="23"/>
+      <c r="A132" s="24"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="23"/>
+      <c r="A133" s="24"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="23"/>
+      <c r="A134" s="24"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="23"/>
+      <c r="A135" s="24"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="23"/>
+      <c r="A136" s="24"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="23"/>
+      <c r="A137" s="24"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="23"/>
+      <c r="A138" s="24"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="23"/>
+      <c r="A139" s="24"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="23"/>
+      <c r="A140" s="24"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="23"/>
+      <c r="A141" s="24"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="23"/>
+      <c r="A142" s="24"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="23"/>
+      <c r="A143" s="24"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="23"/>
+      <c r="A144" s="24"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="23"/>
+      <c r="A145" s="24"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="23"/>
+      <c r="A146" s="24"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="23"/>
+      <c r="A147" s="24"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="23"/>
+      <c r="A148" s="24"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="23"/>
+      <c r="A149" s="24"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="23"/>
+      <c r="A150" s="24"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="23"/>
+      <c r="A151" s="24"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="23"/>
+      <c r="A152" s="24"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="23"/>
+      <c r="A153" s="24"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="23"/>
+      <c r="A154" s="24"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="23"/>
+      <c r="A155" s="24"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="23"/>
+      <c r="A156" s="24"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="23"/>
+      <c r="A157" s="24"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="23"/>
+      <c r="A158" s="24"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="23"/>
+      <c r="A159" s="24"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="23"/>
+      <c r="A160" s="24"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="23"/>
+      <c r="A161" s="24"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="23"/>
+      <c r="A162" s="24"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="23"/>
+      <c r="A163" s="24"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="23"/>
+      <c r="A164" s="24"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="23"/>
+      <c r="A165" s="24"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="23"/>
+      <c r="A166" s="24"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="23"/>
+      <c r="A167" s="24"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="23"/>
+      <c r="A168" s="24"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="23"/>
+      <c r="A169" s="24"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="23"/>
+      <c r="A170" s="24"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="23"/>
+      <c r="A171" s="24"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="23"/>
+      <c r="A172" s="24"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="23"/>
+      <c r="A173" s="24"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="23"/>
+      <c r="A174" s="24"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="23"/>
+      <c r="A175" s="24"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="23"/>
+      <c r="A176" s="24"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="23"/>
+      <c r="A177" s="24"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="23"/>
+      <c r="A178" s="24"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="23"/>
+      <c r="A179" s="24"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="23"/>
+      <c r="A180" s="24"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="23"/>
+      <c r="A181" s="24"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="23"/>
+      <c r="A182" s="24"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="23"/>
+      <c r="A183" s="24"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="23"/>
+      <c r="A184" s="24"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="23"/>
+      <c r="A185" s="24"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="23"/>
+      <c r="A186" s="24"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="23"/>
+      <c r="A187" s="24"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="23"/>
+      <c r="A188" s="24"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="23"/>
+      <c r="A189" s="24"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="23"/>
+      <c r="A190" s="24"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="23"/>
+      <c r="A191" s="24"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="23"/>
+      <c r="A192" s="24"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="23"/>
+      <c r="A193" s="24"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="23"/>
+      <c r="A194" s="24"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="23"/>
+      <c r="A195" s="24"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="23"/>
+      <c r="A196" s="24"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="23"/>
+      <c r="A197" s="24"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="23"/>
+      <c r="A198" s="24"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="23"/>
+      <c r="A199" s="24"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="23"/>
+      <c r="A200" s="24"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="23"/>
+      <c r="A201" s="24"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="23"/>
+      <c r="A202" s="24"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="23"/>
+      <c r="A203" s="24"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="24"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="23"/>
+      <c r="A205" s="24"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="23"/>
+      <c r="A206" s="24"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="23"/>
+      <c r="A207" s="24"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="23"/>
+      <c r="A208" s="24"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="23"/>
+      <c r="A209" s="24"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="23"/>
+      <c r="A210" s="24"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="23"/>
+      <c r="A211" s="24"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="23"/>
+      <c r="A212" s="24"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="23"/>
+      <c r="A213" s="24"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="23"/>
+      <c r="A214" s="24"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="23"/>
+      <c r="A215" s="24"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="23"/>
+      <c r="A216" s="24"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="23"/>
+      <c r="A217" s="24"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="23"/>
+      <c r="A218" s="24"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="23"/>
+      <c r="A219" s="24"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="23"/>
+      <c r="A220" s="24"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/TNR_JDD/JDD.MP.ECH.xlsx
+++ b/TNR_JDD/JDD.MP.ECH.xlsx
@@ -19,32 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="D39">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAxDS_mzE
-Nicolas HUC    (2023-05-16 11:49:02)
-@jean-marc.lafarge-ext@apave.com
-_Attribuée à Jean-Marc LAFARGE_</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjFgk0lOaupRJrE3NHjd7dLKRO74A=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="194">
   <si>
     <t>Date</t>
   </si>
@@ -378,7 +354,26 @@
     <t>NU_PERAUT</t>
   </si>
   <si>
-    <t>Question MOE: A quoi sert cette rubrique ?</t>
+    <t>Période calculée en jours</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">Calculé
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Valeur en jours
+Déterminée par Mainta en fonction de la stratégie (Stratégie sur usage et Usage automatique) pour calculer la prochaine date.</t>
+    </r>
   </si>
   <si>
     <t>ST_CAS</t>
@@ -2811,22 +2806,25 @@
       <c r="A39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>9</v>
+      <c r="B39" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>58</v>
@@ -2840,10 +2838,10 @@
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>75</v>
@@ -2857,13 +2855,13 @@
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>28</v>
@@ -2872,15 +2870,15 @@
         <v>25</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>75</v>
@@ -2891,10 +2889,10 @@
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>58</v>
@@ -2905,10 +2903,10 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>24</v>
@@ -2919,10 +2917,10 @@
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>24</v>
@@ -2933,10 +2931,10 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>24</v>
@@ -2947,10 +2945,10 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>46</v>
@@ -2961,10 +2959,10 @@
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>46</v>
@@ -2975,10 +2973,10 @@
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>24</v>
@@ -2989,10 +2987,10 @@
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>24</v>
@@ -3003,10 +3001,10 @@
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>24</v>
@@ -3017,10 +3015,10 @@
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>24</v>
@@ -3031,10 +3029,10 @@
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>24</v>
@@ -3045,10 +3043,10 @@
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>24</v>
@@ -3059,10 +3057,10 @@
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>24</v>
@@ -3073,10 +3071,10 @@
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>24</v>
@@ -3087,10 +3085,10 @@
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>24</v>
@@ -3101,10 +3099,10 @@
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>24</v>
@@ -3115,10 +3113,10 @@
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>24</v>
@@ -3129,10 +3127,10 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>24</v>
@@ -3143,10 +3141,10 @@
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>46</v>
@@ -3157,10 +3155,10 @@
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>36</v>
@@ -3174,10 +3172,10 @@
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>24</v>
@@ -3191,10 +3189,10 @@
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>24</v>
@@ -3208,10 +3206,10 @@
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>24</v>
@@ -3225,10 +3223,10 @@
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>24</v>
@@ -3242,10 +3240,10 @@
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>46</v>
@@ -3256,13 +3254,13 @@
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>25</v>
@@ -3270,10 +3268,10 @@
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>36</v>
@@ -3282,15 +3280,15 @@
         <v>25</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>46</v>
@@ -3301,10 +3299,10 @@
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>24</v>
@@ -3315,10 +3313,10 @@
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>46</v>
@@ -4258,8 +4256,7 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4399,106 +4396,106 @@
         <v>104</v>
       </c>
       <c r="AL1" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM1" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN1" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO1" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AP1" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AQ1" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AS1" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AT1" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AU1" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AV1" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AW1" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AX1" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY1" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ1" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BA1" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BB1" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BC1" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BD1" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BE1" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BF1" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BG1" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BH1" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BI1" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BJ1" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BK1" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BL1" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BM1" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BN1" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BO1" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BP1" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BQ1" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BR1" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BS1" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
@@ -4506,25 +4503,25 @@
         <v>29</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>9</v>
@@ -4718,7 +4715,7 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>9</v>
@@ -4730,7 +4727,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>9</v>
@@ -4933,7 +4930,7 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>9</v>
@@ -5148,7 +5145,7 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>9</v>
@@ -5169,7 +5166,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>9</v>
@@ -5346,10 +5343,10 @@
         <v>9</v>
       </c>
       <c r="BO5" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BP5" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BQ5" s="21" t="s">
         <v>9</v>
@@ -5363,7 +5360,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>9</v>
@@ -7027,13 +7024,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -8067,7 +8064,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="19"/>
       <c r="B1" s="20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -8102,25 +8099,25 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B3" s="21"/>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B4" s="21"/>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B5" s="21"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B6" s="23"/>
     </row>
